--- a/TP2/Resultados/Canal3-2daParte.xlsx
+++ b/TP2/Resultados/Canal3-2daParte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ramiro\Documents\Facultad\3ro\2do Cuatri\Teoria de la Informacion\Repositorio\TP2\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244CCF3F-F40A-4CA0-A33C-1586F498161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E199CAD6-D7E8-464C-82CB-5DB22CEE9BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="360" windowWidth="16380" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12075" yWindow="1050" windowWidth="16380" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Simbolo</t>
   </si>
@@ -82,24 +82,6 @@
     <t>Matriz P(a/b)</t>
   </si>
   <si>
-    <t>H(A,b1)</t>
-  </si>
-  <si>
-    <t>H(A,b2)</t>
-  </si>
-  <si>
-    <t>H(A,b3)</t>
-  </si>
-  <si>
-    <t>H(A/B)</t>
-  </si>
-  <si>
-    <t>H(A)</t>
-  </si>
-  <si>
-    <t>I(A,B)</t>
-  </si>
-  <si>
     <t>INFORMACION MUTUA</t>
   </si>
   <si>
@@ -115,10 +97,58 @@
     <t>P(B4)</t>
   </si>
   <si>
-    <t>H(A,b4)</t>
-  </si>
-  <si>
     <t>Canal 3</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>H(S,b1)</t>
+  </si>
+  <si>
+    <t>H(S,b2)</t>
+  </si>
+  <si>
+    <t>H(S,b3)</t>
+  </si>
+  <si>
+    <t>H(S,b4)</t>
+  </si>
+  <si>
+    <t>H(S/B)</t>
+  </si>
+  <si>
+    <t>H(S)</t>
+  </si>
+  <si>
+    <t>I(S,B)</t>
+  </si>
+  <si>
+    <t>H(B,s1)</t>
+  </si>
+  <si>
+    <t>H(B,s2)</t>
+  </si>
+  <si>
+    <t>H(B,s3)</t>
+  </si>
+  <si>
+    <t>H(B,s4)</t>
+  </si>
+  <si>
+    <t>H(B/S)</t>
+  </si>
+  <si>
+    <t>H(B)</t>
+  </si>
+  <si>
+    <t>I(B,S)</t>
+  </si>
+  <si>
+    <t>H(B,s5)</t>
+  </si>
+  <si>
+    <t>H(B,s6)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +237,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,9 +249,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,6 +265,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE793202-D002-4A7E-AF9A-78E96547669E}" name="Tabla1" displayName="Tabla1" ref="A22:G26" totalsRowShown="0">
+  <autoFilter ref="A22:G26" xr:uid="{DE793202-D002-4A7E-AF9A-78E96547669E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3ACB1A88-7DAC-4A94-A5F1-F5CD5EF74C8F}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{8437B470-7E10-4C27-8F6C-5FEC098AD813}" name="S1"/>
+    <tableColumn id="3" xr3:uid="{FB505A02-1C6C-4085-AC83-854C62EBB8C9}" name="S2"/>
+    <tableColumn id="4" xr3:uid="{8D3A023A-68B8-4ECD-8F0C-EDE69C0D1679}" name="S3"/>
+    <tableColumn id="5" xr3:uid="{727C75C1-48FF-41A0-9014-4DBBFE22C382}" name="S4"/>
+    <tableColumn id="6" xr3:uid="{88C577A5-A4B3-4892-83B3-1FE6D77433E1}" name="S5"/>
+    <tableColumn id="7" xr3:uid="{7D739A11-5B16-4747-A6D9-89C8507C1792}" name="S6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,23 +546,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
@@ -530,12 +578,12 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -555,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -661,7 +709,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3">
         <v>0.05</v>
@@ -686,7 +734,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0.2</v>
@@ -708,21 +756,21 @@
       <c r="A12" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -731,7 +779,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -740,8 +788,15 @@
         <v>0.29000000000000004</v>
       </c>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <f>E5*LOG(1/E5,2)+F5*LOG(1/F5,2)+G5*LOG(1/G5,2)+H5*LOG(1/H5,2)</f>
+        <v>1.9709505944546688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -749,26 +804,50 @@
         <f>B4*G5+B5*G6+B6*G7+B7*G8+B8*G9+B9*G10</f>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <f>E6*LOG(1/E6,2)+F6*LOG(1/F6,2)+G6*LOG(1/G6,2)+H6*LOG(1/H6,2)</f>
+        <v>1.8954618442383218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <f>B4*H5+B5*H6+B6*H7+B7*H8+B8*H9+B9*H10</f>
         <v>0.22000000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <f>E7*LOG(1/E7,2)+F7*LOG(1/F7,2)+G7*LOG(1/G7,2)+H7*LOG(1/H7,2)</f>
+        <v>1.9709505944546688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21">
+        <f>E8*LOG(1/E8,2)+F8*LOG(1/F8,2)+G8*LOG(1/G8,2)+H8*LOG(1/H8,2)</f>
+        <v>1.9709505944546686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -785,10 +864,17 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M23" si="0">E9*LOG(1/E9,2)+F9*LOG(1/F9,2)+G9*LOG(1/G9,2)+H9*LOG(1/H9,2)</f>
+        <v>1.9709505944546686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -817,14 +903,21 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J23">
         <f>B23*LOG(1/B23,2) +C23*LOG(1/C23,2) + D23*LOG(1/D23,2) + E23*LOG(1/E23,2)+F23*LOG(1/F23,2)+G23*LOG(1/G23,2)</f>
         <v>2.1819011889093374</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1.9709505944546686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -853,14 +946,14 @@
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J24">
         <f>B24*LOG(1/B24,2) +C24*LOG(1/C24,2) + D24*LOG(1/D24,2) + E24*LOG(1/E24,2)+ F24*LOG(1/F24,2)+G24*LOG(1/G24,2)</f>
         <v>2.2261426319395707</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -889,16 +982,16 @@
         <v>6.25E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J25">
         <f>B25*LOG(1/B25,2) +C25*LOG(1/C25,2) + D25*LOG(1/D25,2) + E25*LOG(1/E25,2)+F25*LOG(1/F25,2)+G25*LOG(1/G25,2)</f>
         <v>2.375</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <f>H5*B4/$B$20</f>
@@ -925,50 +1018,73 @@
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26">
         <f>B26*LOG(1/B26,2) +C26*LOG(1/C26,2) + D26*LOG(1/D26,2) + E26*LOG(1/E26,2)+F26*LOG(1/F26,2)+G26*LOG(1/G26,2)</f>
         <v>2.1506140041158783</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J27" s="6">
         <f>B17*J23+B18*J24+B19*J25+B20*J26</f>
         <v>2.2341917413953034</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27">
+        <f>B4*M18+B5*M19+B6*M20+B7*M21+B8*M22+B9*M23</f>
+        <v>1.9558528444113994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J29" s="5">
         <f>B4*LOG(1/B4,2)+B5*LOG(1/B5,2)+B6*LOG(1/B6,2)+B7*LOG(1/B7,2)+B8*LOG(1/B8,2)+B9*LOG(1/B9,2)</f>
         <v>2.2709505944546686</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29">
+        <f>B17*LOG(1/B17,2)+B18*LOG(1/B18,2)+B19*LOG(1/B19,2)+B20*LOG(1/B20,2)</f>
+        <v>1.9926116974707648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G31" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J31" s="6">
         <f>J29-J27</f>
         <v>3.6758853059365215E-2</v>
       </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <f>M29-M27</f>
+        <v>3.6758853059365437E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -981,5 +1097,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>